--- a/timeline gantt.xlsx
+++ b/timeline gantt.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6CE0FEB-313A-4B4A-B050-FCD4ACF8D05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C22022A-9F04-49DF-8D09-F44598DFE19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
-    <sheet name="About" sheetId="12" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Display_Week">ProjectSchedule!$C$4</definedName>
@@ -40,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
-  <si>
-    <t>Project Management Templates</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>START</t>
   </si>
@@ -55,53 +51,6 @@
   </si>
   <si>
     <t>TASK</t>
-  </si>
-  <si>
-    <t>More Project Management Templates</t>
-  </si>
-  <si>
-    <t>About This Template</t>
-  </si>
-  <si>
-    <t>SIMPLE GANTT CHART by Vertex42.com</t>
-  </si>
-  <si>
-    <t>Additional Help</t>
-  </si>
-  <si>
-    <t>About Vertex42</t>
-  </si>
-  <si>
-    <t>Vertex42.com provides over 300 professionally designed spreadsheet templates for business, home, and education - most of which are free to download. Their collection includes a variety of calendars, planners, and schedules as well as personal finance spreadsheets for budgeting, debt reduction, and loan amortization.</t>
-  </si>
-  <si>
-    <t>Businesses will find invoices, time sheets, inventory trackers, financial statements, and project planning templates. Teachers and students will find resources such as class schedules, grade books, and attendance sheets. Organize your family life with meal planners, checklists, and exercise logs. Each template is thoroughly researched, refined, and improved over time through feedback from thousands of users.</t>
-  </si>
-  <si>
-    <t>https://www.vertex42.com/ExcelTemplates/simple-gantt-chart.html</t>
-  </si>
-  <si>
-    <t>Visit Vertex42.com to download other project management templates, including different types of project schedules, Gantt charts, tasks lists, etc.</t>
-  </si>
-  <si>
-    <t>How to Use the Simple Gantt Chart</t>
-  </si>
-  <si>
-    <t>This template provides a simple way to create a Gantt chart to help visualize and track your project. Simply enter your tasks and start and end dates - no formulas required. The bars in the Gantt chart represent the duration of the task and are displayed using conditional formatting. Insert new tasks by inserting new rows.</t>
-  </si>
-  <si>
-    <t>Click on the link below to visit vertex42.com and learn more about how to use this template, such as how to calculate days and work days, create task dependencies, change the colors of the bars, add a scroll bar to make it easier to change the display week, extend the date range displayed in the chart, etc.</t>
-  </si>
-  <si>
-    <t>There are 2 worksheets in this workbook. 
-TimeSheet
-About
-The instructions for each worksheet are in the A column starting in cell A1 of each worksheet. They are written with hidden text. Each step guides you through the information in that row. Each subsequent step continues in cell A2, A3, and so on, unless otherwise explicitly directed. For example, instruction text might say "continue to cell A6" for the next step. 
-This hidden text will not print.
-To remove these instructions from the worksheet, simply delete column A.</t>
-  </si>
-  <si>
-    <t>Guide for Screen Readers</t>
   </si>
   <si>
     <t>Enter Company Name in cell B2.</t>
@@ -271,7 +220,7 @@
     <numFmt numFmtId="167" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="d"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,49 +294,6 @@
       <b/>
       <sz val="22"/>
       <color theme="1" tint="0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1D2129"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -664,7 +570,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -687,7 +593,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -765,36 +671,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
@@ -826,33 +704,15 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="11" xfId="8" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="13" xfId="8" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -870,6 +730,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="13" xfId="8" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="11" xfId="8" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1143,62 +1018,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Vertex42 logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="95250"/>
-          <a:ext cx="1905000" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1476,7 +1295,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="37" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="27" customWidth="1"/>
     <col min="2" max="2" width="32.109375" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" customWidth="1"/>
@@ -1486,435 +1305,435 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:272" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>32</v>
+      <c r="A1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>17</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="26"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="50"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:272" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="51"/>
+      <c r="A2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:272" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="58">
+      <c r="A3" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="43">
         <v>2024247</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="53">
         <v>45554</v>
       </c>
-      <c r="D3" s="57"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="1:272" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="56"/>
-      <c r="G4" s="53">
+      <c r="A4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="G4" s="50">
         <f>G5</f>
         <v>45544</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="53">
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="50">
         <f>N5</f>
         <v>45551</v>
       </c>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="53">
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="50">
         <f>U5</f>
         <v>45558</v>
       </c>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="53">
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="50">
         <f>AB5</f>
         <v>45565</v>
       </c>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="53">
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="50">
         <f>AI5</f>
         <v>45572</v>
       </c>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="53">
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="50">
         <f>AP5</f>
         <v>45579</v>
       </c>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="54"/>
-      <c r="AS4" s="54"/>
-      <c r="AT4" s="54"/>
-      <c r="AU4" s="54"/>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="53">
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="50">
         <f>AW5</f>
         <v>45586</v>
       </c>
-      <c r="AX4" s="54"/>
-      <c r="AY4" s="54"/>
-      <c r="AZ4" s="54"/>
-      <c r="BA4" s="54"/>
-      <c r="BB4" s="54"/>
-      <c r="BC4" s="55"/>
-      <c r="BD4" s="53">
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="51"/>
+      <c r="BC4" s="52"/>
+      <c r="BD4" s="50">
         <f>BD5</f>
         <v>45593</v>
       </c>
-      <c r="BE4" s="54"/>
-      <c r="BF4" s="54"/>
-      <c r="BG4" s="54"/>
-      <c r="BH4" s="54"/>
-      <c r="BI4" s="54"/>
-      <c r="BJ4" s="55"/>
-      <c r="BK4" s="53">
+      <c r="BE4" s="51"/>
+      <c r="BF4" s="51"/>
+      <c r="BG4" s="51"/>
+      <c r="BH4" s="51"/>
+      <c r="BI4" s="51"/>
+      <c r="BJ4" s="52"/>
+      <c r="BK4" s="50">
         <f>BK5</f>
         <v>45600</v>
       </c>
-      <c r="BL4" s="54"/>
-      <c r="BM4" s="54"/>
-      <c r="BN4" s="54"/>
-      <c r="BO4" s="54"/>
-      <c r="BP4" s="54"/>
-      <c r="BQ4" s="55"/>
-      <c r="BR4" s="53">
+      <c r="BL4" s="51"/>
+      <c r="BM4" s="51"/>
+      <c r="BN4" s="51"/>
+      <c r="BO4" s="51"/>
+      <c r="BP4" s="51"/>
+      <c r="BQ4" s="52"/>
+      <c r="BR4" s="50">
         <f>BR5</f>
         <v>45607</v>
       </c>
-      <c r="BS4" s="54"/>
-      <c r="BT4" s="54"/>
-      <c r="BU4" s="54"/>
-      <c r="BV4" s="54"/>
-      <c r="BW4" s="54"/>
-      <c r="BX4" s="55"/>
-      <c r="BY4" s="53">
+      <c r="BS4" s="51"/>
+      <c r="BT4" s="51"/>
+      <c r="BU4" s="51"/>
+      <c r="BV4" s="51"/>
+      <c r="BW4" s="51"/>
+      <c r="BX4" s="52"/>
+      <c r="BY4" s="50">
         <f>BY5</f>
         <v>45614</v>
       </c>
-      <c r="BZ4" s="54"/>
-      <c r="CA4" s="54"/>
-      <c r="CB4" s="54"/>
-      <c r="CC4" s="54"/>
-      <c r="CD4" s="54"/>
-      <c r="CE4" s="55"/>
-      <c r="CF4" s="53">
+      <c r="BZ4" s="51"/>
+      <c r="CA4" s="51"/>
+      <c r="CB4" s="51"/>
+      <c r="CC4" s="51"/>
+      <c r="CD4" s="51"/>
+      <c r="CE4" s="52"/>
+      <c r="CF4" s="50">
         <f t="shared" ref="CF4" si="0">CF5</f>
         <v>45621</v>
       </c>
-      <c r="CG4" s="54"/>
-      <c r="CH4" s="54"/>
-      <c r="CI4" s="54"/>
-      <c r="CJ4" s="54"/>
-      <c r="CK4" s="54"/>
-      <c r="CL4" s="55"/>
-      <c r="CM4" s="53">
+      <c r="CG4" s="51"/>
+      <c r="CH4" s="51"/>
+      <c r="CI4" s="51"/>
+      <c r="CJ4" s="51"/>
+      <c r="CK4" s="51"/>
+      <c r="CL4" s="52"/>
+      <c r="CM4" s="50">
         <f t="shared" ref="CM4" si="1">CM5</f>
         <v>45628</v>
       </c>
-      <c r="CN4" s="54"/>
-      <c r="CO4" s="54"/>
-      <c r="CP4" s="54"/>
-      <c r="CQ4" s="54"/>
-      <c r="CR4" s="54"/>
-      <c r="CS4" s="55"/>
-      <c r="CT4" s="53">
+      <c r="CN4" s="51"/>
+      <c r="CO4" s="51"/>
+      <c r="CP4" s="51"/>
+      <c r="CQ4" s="51"/>
+      <c r="CR4" s="51"/>
+      <c r="CS4" s="52"/>
+      <c r="CT4" s="50">
         <f t="shared" ref="CT4" si="2">CT5</f>
         <v>45635</v>
       </c>
-      <c r="CU4" s="54"/>
-      <c r="CV4" s="54"/>
-      <c r="CW4" s="54"/>
-      <c r="CX4" s="54"/>
-      <c r="CY4" s="54"/>
-      <c r="CZ4" s="55"/>
-      <c r="DA4" s="53">
+      <c r="CU4" s="51"/>
+      <c r="CV4" s="51"/>
+      <c r="CW4" s="51"/>
+      <c r="CX4" s="51"/>
+      <c r="CY4" s="51"/>
+      <c r="CZ4" s="52"/>
+      <c r="DA4" s="50">
         <f t="shared" ref="DA4" si="3">DA5</f>
         <v>45642</v>
       </c>
-      <c r="DB4" s="54"/>
-      <c r="DC4" s="54"/>
-      <c r="DD4" s="54"/>
-      <c r="DE4" s="54"/>
-      <c r="DF4" s="54"/>
-      <c r="DG4" s="55"/>
-      <c r="DH4" s="53">
+      <c r="DB4" s="51"/>
+      <c r="DC4" s="51"/>
+      <c r="DD4" s="51"/>
+      <c r="DE4" s="51"/>
+      <c r="DF4" s="51"/>
+      <c r="DG4" s="52"/>
+      <c r="DH4" s="50">
         <f t="shared" ref="DH4" si="4">DH5</f>
         <v>45649</v>
       </c>
-      <c r="DI4" s="54"/>
-      <c r="DJ4" s="54"/>
-      <c r="DK4" s="54"/>
-      <c r="DL4" s="54"/>
-      <c r="DM4" s="54"/>
-      <c r="DN4" s="55"/>
-      <c r="DO4" s="53">
+      <c r="DI4" s="51"/>
+      <c r="DJ4" s="51"/>
+      <c r="DK4" s="51"/>
+      <c r="DL4" s="51"/>
+      <c r="DM4" s="51"/>
+      <c r="DN4" s="52"/>
+      <c r="DO4" s="50">
         <f t="shared" ref="DO4" si="5">DO5</f>
         <v>45656</v>
       </c>
-      <c r="DP4" s="54"/>
-      <c r="DQ4" s="54"/>
-      <c r="DR4" s="54"/>
-      <c r="DS4" s="54"/>
-      <c r="DT4" s="54"/>
-      <c r="DU4" s="55"/>
-      <c r="DV4" s="53">
+      <c r="DP4" s="51"/>
+      <c r="DQ4" s="51"/>
+      <c r="DR4" s="51"/>
+      <c r="DS4" s="51"/>
+      <c r="DT4" s="51"/>
+      <c r="DU4" s="52"/>
+      <c r="DV4" s="50">
         <f t="shared" ref="DV4" si="6">DV5</f>
         <v>45663</v>
       </c>
-      <c r="DW4" s="54"/>
-      <c r="DX4" s="54"/>
-      <c r="DY4" s="54"/>
-      <c r="DZ4" s="54"/>
-      <c r="EA4" s="54"/>
-      <c r="EB4" s="55"/>
-      <c r="EC4" s="53">
+      <c r="DW4" s="51"/>
+      <c r="DX4" s="51"/>
+      <c r="DY4" s="51"/>
+      <c r="DZ4" s="51"/>
+      <c r="EA4" s="51"/>
+      <c r="EB4" s="52"/>
+      <c r="EC4" s="50">
         <f t="shared" ref="EC4" si="7">EC5</f>
         <v>45670</v>
       </c>
-      <c r="ED4" s="54"/>
-      <c r="EE4" s="54"/>
-      <c r="EF4" s="54"/>
-      <c r="EG4" s="54"/>
-      <c r="EH4" s="54"/>
-      <c r="EI4" s="55"/>
-      <c r="EJ4" s="53">
+      <c r="ED4" s="51"/>
+      <c r="EE4" s="51"/>
+      <c r="EF4" s="51"/>
+      <c r="EG4" s="51"/>
+      <c r="EH4" s="51"/>
+      <c r="EI4" s="52"/>
+      <c r="EJ4" s="50">
         <f t="shared" ref="EJ4" si="8">EJ5</f>
         <v>45677</v>
       </c>
-      <c r="EK4" s="54"/>
-      <c r="EL4" s="54"/>
-      <c r="EM4" s="54"/>
-      <c r="EN4" s="54"/>
-      <c r="EO4" s="54"/>
-      <c r="EP4" s="55"/>
-      <c r="EQ4" s="53">
+      <c r="EK4" s="51"/>
+      <c r="EL4" s="51"/>
+      <c r="EM4" s="51"/>
+      <c r="EN4" s="51"/>
+      <c r="EO4" s="51"/>
+      <c r="EP4" s="52"/>
+      <c r="EQ4" s="50">
         <f t="shared" ref="EQ4" si="9">EQ5</f>
         <v>45684</v>
       </c>
-      <c r="ER4" s="54"/>
-      <c r="ES4" s="54"/>
-      <c r="ET4" s="54"/>
-      <c r="EU4" s="54"/>
-      <c r="EV4" s="54"/>
-      <c r="EW4" s="55"/>
-      <c r="EX4" s="53">
+      <c r="ER4" s="51"/>
+      <c r="ES4" s="51"/>
+      <c r="ET4" s="51"/>
+      <c r="EU4" s="51"/>
+      <c r="EV4" s="51"/>
+      <c r="EW4" s="52"/>
+      <c r="EX4" s="50">
         <f t="shared" ref="EX4" si="10">EX5</f>
         <v>45691</v>
       </c>
-      <c r="EY4" s="54"/>
-      <c r="EZ4" s="54"/>
-      <c r="FA4" s="54"/>
-      <c r="FB4" s="54"/>
-      <c r="FC4" s="54"/>
-      <c r="FD4" s="55"/>
-      <c r="FE4" s="53">
+      <c r="EY4" s="51"/>
+      <c r="EZ4" s="51"/>
+      <c r="FA4" s="51"/>
+      <c r="FB4" s="51"/>
+      <c r="FC4" s="51"/>
+      <c r="FD4" s="52"/>
+      <c r="FE4" s="50">
         <f t="shared" ref="FE4" si="11">FE5</f>
         <v>45698</v>
       </c>
-      <c r="FF4" s="54"/>
-      <c r="FG4" s="54"/>
-      <c r="FH4" s="54"/>
-      <c r="FI4" s="54"/>
-      <c r="FJ4" s="54"/>
-      <c r="FK4" s="55"/>
-      <c r="FL4" s="53">
+      <c r="FF4" s="51"/>
+      <c r="FG4" s="51"/>
+      <c r="FH4" s="51"/>
+      <c r="FI4" s="51"/>
+      <c r="FJ4" s="51"/>
+      <c r="FK4" s="52"/>
+      <c r="FL4" s="50">
         <f t="shared" ref="FL4" si="12">FL5</f>
         <v>45705</v>
       </c>
-      <c r="FM4" s="54"/>
-      <c r="FN4" s="54"/>
-      <c r="FO4" s="54"/>
-      <c r="FP4" s="54"/>
-      <c r="FQ4" s="54"/>
-      <c r="FR4" s="55"/>
-      <c r="FS4" s="53">
+      <c r="FM4" s="51"/>
+      <c r="FN4" s="51"/>
+      <c r="FO4" s="51"/>
+      <c r="FP4" s="51"/>
+      <c r="FQ4" s="51"/>
+      <c r="FR4" s="52"/>
+      <c r="FS4" s="50">
         <f t="shared" ref="FS4" si="13">FS5</f>
         <v>45712</v>
       </c>
-      <c r="FT4" s="54"/>
-      <c r="FU4" s="54"/>
-      <c r="FV4" s="54"/>
-      <c r="FW4" s="54"/>
-      <c r="FX4" s="54"/>
-      <c r="FY4" s="55"/>
-      <c r="FZ4" s="53">
+      <c r="FT4" s="51"/>
+      <c r="FU4" s="51"/>
+      <c r="FV4" s="51"/>
+      <c r="FW4" s="51"/>
+      <c r="FX4" s="51"/>
+      <c r="FY4" s="52"/>
+      <c r="FZ4" s="50">
         <f t="shared" ref="FZ4" si="14">FZ5</f>
         <v>45719</v>
       </c>
-      <c r="GA4" s="54"/>
-      <c r="GB4" s="54"/>
-      <c r="GC4" s="54"/>
-      <c r="GD4" s="54"/>
-      <c r="GE4" s="54"/>
-      <c r="GF4" s="55"/>
-      <c r="GG4" s="53">
+      <c r="GA4" s="51"/>
+      <c r="GB4" s="51"/>
+      <c r="GC4" s="51"/>
+      <c r="GD4" s="51"/>
+      <c r="GE4" s="51"/>
+      <c r="GF4" s="52"/>
+      <c r="GG4" s="50">
         <f t="shared" ref="GG4" si="15">GG5</f>
         <v>45726</v>
       </c>
-      <c r="GH4" s="54"/>
-      <c r="GI4" s="54"/>
-      <c r="GJ4" s="54"/>
-      <c r="GK4" s="54"/>
-      <c r="GL4" s="54"/>
-      <c r="GM4" s="55"/>
-      <c r="GN4" s="53">
+      <c r="GH4" s="51"/>
+      <c r="GI4" s="51"/>
+      <c r="GJ4" s="51"/>
+      <c r="GK4" s="51"/>
+      <c r="GL4" s="51"/>
+      <c r="GM4" s="52"/>
+      <c r="GN4" s="50">
         <f t="shared" ref="GN4" si="16">GN5</f>
         <v>45733</v>
       </c>
-      <c r="GO4" s="54"/>
-      <c r="GP4" s="54"/>
-      <c r="GQ4" s="54"/>
-      <c r="GR4" s="54"/>
-      <c r="GS4" s="54"/>
-      <c r="GT4" s="55"/>
-      <c r="GU4" s="53">
+      <c r="GO4" s="51"/>
+      <c r="GP4" s="51"/>
+      <c r="GQ4" s="51"/>
+      <c r="GR4" s="51"/>
+      <c r="GS4" s="51"/>
+      <c r="GT4" s="52"/>
+      <c r="GU4" s="50">
         <f t="shared" ref="GU4" si="17">GU5</f>
         <v>45740</v>
       </c>
-      <c r="GV4" s="54"/>
-      <c r="GW4" s="54"/>
-      <c r="GX4" s="54"/>
-      <c r="GY4" s="54"/>
-      <c r="GZ4" s="54"/>
-      <c r="HA4" s="55"/>
-      <c r="HB4" s="53">
+      <c r="GV4" s="51"/>
+      <c r="GW4" s="51"/>
+      <c r="GX4" s="51"/>
+      <c r="GY4" s="51"/>
+      <c r="GZ4" s="51"/>
+      <c r="HA4" s="52"/>
+      <c r="HB4" s="50">
         <f t="shared" ref="HB4" si="18">HB5</f>
         <v>45747</v>
       </c>
-      <c r="HC4" s="54"/>
-      <c r="HD4" s="54"/>
-      <c r="HE4" s="54"/>
-      <c r="HF4" s="54"/>
-      <c r="HG4" s="54"/>
-      <c r="HH4" s="55"/>
-      <c r="HI4" s="53">
+      <c r="HC4" s="51"/>
+      <c r="HD4" s="51"/>
+      <c r="HE4" s="51"/>
+      <c r="HF4" s="51"/>
+      <c r="HG4" s="51"/>
+      <c r="HH4" s="52"/>
+      <c r="HI4" s="50">
         <f t="shared" ref="HI4" si="19">HI5</f>
         <v>45754</v>
       </c>
-      <c r="HJ4" s="54"/>
-      <c r="HK4" s="54"/>
-      <c r="HL4" s="54"/>
-      <c r="HM4" s="54"/>
-      <c r="HN4" s="54"/>
-      <c r="HO4" s="55"/>
-      <c r="HP4" s="53">
+      <c r="HJ4" s="51"/>
+      <c r="HK4" s="51"/>
+      <c r="HL4" s="51"/>
+      <c r="HM4" s="51"/>
+      <c r="HN4" s="51"/>
+      <c r="HO4" s="52"/>
+      <c r="HP4" s="50">
         <f t="shared" ref="HP4" si="20">HP5</f>
         <v>45761</v>
       </c>
-      <c r="HQ4" s="54"/>
-      <c r="HR4" s="54"/>
-      <c r="HS4" s="54"/>
-      <c r="HT4" s="54"/>
-      <c r="HU4" s="54"/>
-      <c r="HV4" s="55"/>
-      <c r="HW4" s="53">
+      <c r="HQ4" s="51"/>
+      <c r="HR4" s="51"/>
+      <c r="HS4" s="51"/>
+      <c r="HT4" s="51"/>
+      <c r="HU4" s="51"/>
+      <c r="HV4" s="52"/>
+      <c r="HW4" s="50">
         <f t="shared" ref="HW4" si="21">HW5</f>
         <v>45768</v>
       </c>
-      <c r="HX4" s="54"/>
-      <c r="HY4" s="54"/>
-      <c r="HZ4" s="54"/>
-      <c r="IA4" s="54"/>
-      <c r="IB4" s="54"/>
-      <c r="IC4" s="55"/>
-      <c r="ID4" s="53">
+      <c r="HX4" s="51"/>
+      <c r="HY4" s="51"/>
+      <c r="HZ4" s="51"/>
+      <c r="IA4" s="51"/>
+      <c r="IB4" s="51"/>
+      <c r="IC4" s="52"/>
+      <c r="ID4" s="50">
         <f t="shared" ref="ID4" si="22">ID5</f>
         <v>45775</v>
       </c>
-      <c r="IE4" s="54"/>
-      <c r="IF4" s="54"/>
-      <c r="IG4" s="54"/>
-      <c r="IH4" s="54"/>
-      <c r="II4" s="54"/>
-      <c r="IJ4" s="55"/>
-      <c r="IK4" s="53">
+      <c r="IE4" s="51"/>
+      <c r="IF4" s="51"/>
+      <c r="IG4" s="51"/>
+      <c r="IH4" s="51"/>
+      <c r="II4" s="51"/>
+      <c r="IJ4" s="52"/>
+      <c r="IK4" s="50">
         <f t="shared" ref="IK4" si="23">IK5</f>
         <v>45782</v>
       </c>
-      <c r="IL4" s="54"/>
-      <c r="IM4" s="54"/>
-      <c r="IN4" s="54"/>
-      <c r="IO4" s="54"/>
-      <c r="IP4" s="54"/>
-      <c r="IQ4" s="55"/>
-      <c r="IR4" s="53">
+      <c r="IL4" s="51"/>
+      <c r="IM4" s="51"/>
+      <c r="IN4" s="51"/>
+      <c r="IO4" s="51"/>
+      <c r="IP4" s="51"/>
+      <c r="IQ4" s="52"/>
+      <c r="IR4" s="50">
         <f t="shared" ref="IR4" si="24">IR5</f>
         <v>45789</v>
       </c>
-      <c r="IS4" s="54"/>
-      <c r="IT4" s="54"/>
-      <c r="IU4" s="54"/>
-      <c r="IV4" s="54"/>
-      <c r="IW4" s="54"/>
-      <c r="IX4" s="55"/>
-      <c r="IY4" s="53">
+      <c r="IS4" s="51"/>
+      <c r="IT4" s="51"/>
+      <c r="IU4" s="51"/>
+      <c r="IV4" s="51"/>
+      <c r="IW4" s="51"/>
+      <c r="IX4" s="52"/>
+      <c r="IY4" s="50">
         <f t="shared" ref="IY4" si="25">IY5</f>
         <v>45796</v>
       </c>
-      <c r="IZ4" s="54"/>
-      <c r="JA4" s="54"/>
-      <c r="JB4" s="54"/>
-      <c r="JC4" s="54"/>
-      <c r="JD4" s="54"/>
-      <c r="JE4" s="55"/>
-      <c r="JF4" s="53">
+      <c r="IZ4" s="51"/>
+      <c r="JA4" s="51"/>
+      <c r="JB4" s="51"/>
+      <c r="JC4" s="51"/>
+      <c r="JD4" s="51"/>
+      <c r="JE4" s="52"/>
+      <c r="JF4" s="50">
         <f t="shared" ref="JF4" si="26">JF5</f>
         <v>45803</v>
       </c>
-      <c r="JG4" s="54"/>
-      <c r="JH4" s="54"/>
-      <c r="JI4" s="54"/>
-      <c r="JJ4" s="54"/>
-      <c r="JK4" s="54"/>
-      <c r="JL4" s="55"/>
+      <c r="JG4" s="51"/>
+      <c r="JH4" s="51"/>
+      <c r="JI4" s="51"/>
+      <c r="JJ4" s="51"/>
+      <c r="JK4" s="51"/>
+      <c r="JL4" s="52"/>
     </row>
     <row r="5" spans="1:272" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
+      <c r="A5" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="G5" s="8">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45544</v>
@@ -2981,21 +2800,21 @@
       </c>
     </row>
     <row r="6" spans="1:272" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="38" t="s">
-        <v>24</v>
+      <c r="A6" s="28" t="s">
+        <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>2</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="10" t="str">
         <f t="shared" ref="G6" si="218">LEFT(TEXT(G5,"ddd"),1)</f>
@@ -4063,8 +3882,8 @@
       </c>
     </row>
     <row r="7" spans="1:272" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="s">
-        <v>29</v>
+      <c r="A7" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="C7"/>
       <c r="F7" t="str">
@@ -4129,11 +3948,11 @@
       <c r="BJ7" s="24"/>
     </row>
     <row r="8" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
-        <v>25</v>
+      <c r="A8" s="28" t="s">
+        <v>10</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
@@ -4410,17 +4229,17 @@
       <c r="JL8" s="24"/>
     </row>
     <row r="9" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="41">
+      <c r="A9" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="31">
         <f>Project_Start</f>
         <v>45554</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="31">
         <f>C9+14</f>
         <v>45568</v>
       </c>
@@ -4697,17 +4516,17 @@
       <c r="JL9" s="24"/>
     </row>
     <row r="10" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="41">
+      <c r="A10" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="31">
         <f>D9</f>
         <v>45568</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="31">
         <f>C10+14</f>
         <v>45582</v>
       </c>
@@ -4984,15 +4803,15 @@
       <c r="JL10" s="24"/>
     </row>
     <row r="11" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="37"/>
-      <c r="B11" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="41">
+      <c r="A11" s="27"/>
+      <c r="B11" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="31">
         <f>C10+10</f>
         <v>45578</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="31">
         <f>C11+7</f>
         <v>45585</v>
       </c>
@@ -5269,14 +5088,14 @@
       <c r="JL11" s="24"/>
     </row>
     <row r="12" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="41">
+      <c r="A12" s="27"/>
+      <c r="B12" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="31">
         <v>45583</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="31">
         <v>45592</v>
       </c>
       <c r="E12" s="11"/>
@@ -5549,11 +5368,11 @@
       <c r="JL12" s="24"/>
     </row>
     <row r="13" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38" t="s">
-        <v>27</v>
+      <c r="A13" s="28" t="s">
+        <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
@@ -5830,14 +5649,14 @@
       <c r="JL13" s="24"/>
     </row>
     <row r="14" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
-      <c r="B14" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="42">
+      <c r="A14" s="28"/>
+      <c r="B14" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="32">
         <v>45585</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="32">
         <f>C14+16</f>
         <v>45601</v>
       </c>
@@ -6114,15 +5933,15 @@
       <c r="JL14" s="24"/>
     </row>
     <row r="15" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37"/>
-      <c r="B15" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="42">
+      <c r="A15" s="27"/>
+      <c r="B15" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="32">
         <f>C14+7</f>
         <v>45592</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="32">
         <f>C15+5</f>
         <v>45597</v>
       </c>
@@ -6399,15 +6218,15 @@
       <c r="JL15" s="24"/>
     </row>
     <row r="16" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37"/>
-      <c r="B16" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="42">
+      <c r="A16" s="27"/>
+      <c r="B16" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="32">
         <f>D15</f>
         <v>45597</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="32">
         <f>C16+14</f>
         <v>45611</v>
       </c>
@@ -6684,17 +6503,17 @@
       <c r="JL16" s="24"/>
     </row>
     <row r="17" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="42">
+      <c r="A17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="32">
         <f>D16</f>
         <v>45611</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="32">
         <f>C17+30</f>
         <v>45641</v>
       </c>
@@ -6968,11 +6787,11 @@
       <c r="JL17" s="24"/>
     </row>
     <row r="18" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="37" t="s">
-        <v>20</v>
+      <c r="A18" s="27" t="s">
+        <v>5</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
@@ -7249,14 +7068,14 @@
       <c r="JL18" s="24"/>
     </row>
     <row r="19" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="37"/>
-      <c r="B19" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="43">
+      <c r="A19" s="27"/>
+      <c r="B19" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="33">
         <v>45660</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="33">
         <f>C19+7</f>
         <v>45667</v>
       </c>
@@ -7533,15 +7352,15 @@
       <c r="JL19" s="24"/>
     </row>
     <row r="20" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="37"/>
-      <c r="B20" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="43">
+      <c r="A20" s="27"/>
+      <c r="B20" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="33">
         <f>D19</f>
         <v>45667</v>
       </c>
-      <c r="D20" s="43">
+      <c r="D20" s="33">
         <f>C20+21</f>
         <v>45688</v>
       </c>
@@ -7818,15 +7637,15 @@
       <c r="JL20" s="24"/>
     </row>
     <row r="21" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="37"/>
-      <c r="B21" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="43">
+      <c r="A21" s="27"/>
+      <c r="B21" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="33">
         <f>D20+3</f>
         <v>45691</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="33">
         <f>C21+30</f>
         <v>45721</v>
       </c>
@@ -8103,11 +7922,11 @@
       <c r="JL21" s="24"/>
     </row>
     <row r="22" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="37" t="s">
-        <v>20</v>
+      <c r="A22" s="27" t="s">
+        <v>5</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="23"/>
@@ -8384,15 +8203,15 @@
       <c r="JL22" s="24"/>
     </row>
     <row r="23" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="37"/>
-      <c r="B23" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="44">
+      <c r="A23" s="27"/>
+      <c r="B23" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="34">
         <f>D21</f>
         <v>45721</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="34">
         <f>C23+4</f>
         <v>45725</v>
       </c>
@@ -8669,15 +8488,15 @@
       <c r="JL23" s="24"/>
     </row>
     <row r="24" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="37"/>
-      <c r="B24" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="44">
+      <c r="A24" s="27"/>
+      <c r="B24" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="34">
         <f>D23</f>
         <v>45725</v>
       </c>
-      <c r="D24" s="44">
+      <c r="D24" s="34">
         <f>C24+2</f>
         <v>45727</v>
       </c>
@@ -8954,15 +8773,15 @@
       <c r="JL24" s="24"/>
     </row>
     <row r="25" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="37"/>
-      <c r="B25" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="44">
+      <c r="A25" s="27"/>
+      <c r="B25" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="34">
         <f>D24</f>
         <v>45727</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="34">
         <f>C25+4</f>
         <v>45731</v>
       </c>
@@ -9239,15 +9058,15 @@
       <c r="JL25" s="24"/>
     </row>
     <row r="26" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="37"/>
-      <c r="B26" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="44">
+      <c r="A26" s="27"/>
+      <c r="B26" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="34">
         <f>D25</f>
         <v>45731</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D26" s="34">
         <f>C26+2</f>
         <v>45733</v>
       </c>
@@ -9524,15 +9343,15 @@
       <c r="JL26" s="24"/>
     </row>
     <row r="27" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="37"/>
-      <c r="B27" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="44">
+      <c r="A27" s="27"/>
+      <c r="B27" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="34">
         <f>D26</f>
         <v>45733</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="34">
         <f>C27+4</f>
         <v>45737</v>
       </c>
@@ -9809,15 +9628,15 @@
       <c r="JL27" s="24"/>
     </row>
     <row r="28" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="37"/>
-      <c r="B28" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="44">
+      <c r="A28" s="27"/>
+      <c r="B28" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="34">
         <f>D27</f>
         <v>45737</v>
       </c>
-      <c r="D28" s="44">
+      <c r="D28" s="34">
         <f>C28+2</f>
         <v>45739</v>
       </c>
@@ -10091,14 +9910,14 @@
       <c r="JL28" s="24"/>
     </row>
     <row r="29" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
+      <c r="A29" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11" t="str">
         <f t="shared" si="225"/>
@@ -10372,15 +10191,15 @@
       <c r="JL29" s="24"/>
     </row>
     <row r="30" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="37"/>
-      <c r="B30" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="62">
+      <c r="A30" s="27"/>
+      <c r="B30" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="46">
         <f>D28+5</f>
         <v>45744</v>
       </c>
-      <c r="D30" s="62">
+      <c r="D30" s="46">
         <f>C30+7</f>
         <v>45751</v>
       </c>
@@ -10657,15 +10476,15 @@
       <c r="JL30" s="24"/>
     </row>
     <row r="31" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="37"/>
-      <c r="B31" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="62">
+      <c r="A31" s="27"/>
+      <c r="B31" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="46">
         <f>D30</f>
         <v>45751</v>
       </c>
-      <c r="D31" s="62">
+      <c r="D31" s="46">
         <f>C31+10</f>
         <v>45761</v>
       </c>
@@ -10939,15 +10758,15 @@
       <c r="JL31" s="24"/>
     </row>
     <row r="32" spans="1:272" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="37"/>
-      <c r="B32" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="62">
+      <c r="A32" s="27"/>
+      <c r="B32" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="46">
         <f>D31</f>
         <v>45761</v>
       </c>
-      <c r="D32" s="62">
+      <c r="D32" s="46">
         <f>C32+30</f>
         <v>45791</v>
       </c>
@@ -11222,35 +11041,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="IK4:IQ4"/>
-    <mergeCell ref="IR4:IX4"/>
-    <mergeCell ref="IY4:JE4"/>
-    <mergeCell ref="JF4:JL4"/>
-    <mergeCell ref="HB4:HH4"/>
-    <mergeCell ref="HI4:HO4"/>
-    <mergeCell ref="HP4:HV4"/>
-    <mergeCell ref="HW4:IC4"/>
-    <mergeCell ref="ID4:IJ4"/>
-    <mergeCell ref="FS4:FY4"/>
-    <mergeCell ref="FZ4:GF4"/>
-    <mergeCell ref="GG4:GM4"/>
-    <mergeCell ref="GN4:GT4"/>
-    <mergeCell ref="GU4:HA4"/>
-    <mergeCell ref="EJ4:EP4"/>
-    <mergeCell ref="EQ4:EW4"/>
-    <mergeCell ref="EX4:FD4"/>
-    <mergeCell ref="FE4:FK4"/>
-    <mergeCell ref="FL4:FR4"/>
-    <mergeCell ref="DA4:DG4"/>
-    <mergeCell ref="DH4:DN4"/>
-    <mergeCell ref="DO4:DU4"/>
-    <mergeCell ref="DV4:EB4"/>
-    <mergeCell ref="EC4:EI4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="CF4:CL4"/>
-    <mergeCell ref="CM4:CS4"/>
-    <mergeCell ref="CT4:CZ4"/>
     <mergeCell ref="BK4:BQ4"/>
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
@@ -11261,8 +11051,37 @@
     <mergeCell ref="N4:T4"/>
     <mergeCell ref="U4:AA4"/>
     <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="CF4:CL4"/>
+    <mergeCell ref="CM4:CS4"/>
+    <mergeCell ref="CT4:CZ4"/>
+    <mergeCell ref="DA4:DG4"/>
+    <mergeCell ref="DH4:DN4"/>
+    <mergeCell ref="DO4:DU4"/>
+    <mergeCell ref="DV4:EB4"/>
+    <mergeCell ref="EC4:EI4"/>
+    <mergeCell ref="EJ4:EP4"/>
+    <mergeCell ref="EQ4:EW4"/>
+    <mergeCell ref="EX4:FD4"/>
+    <mergeCell ref="FE4:FK4"/>
+    <mergeCell ref="FL4:FR4"/>
+    <mergeCell ref="FS4:FY4"/>
+    <mergeCell ref="FZ4:GF4"/>
+    <mergeCell ref="GG4:GM4"/>
+    <mergeCell ref="GN4:GT4"/>
+    <mergeCell ref="GU4:HA4"/>
+    <mergeCell ref="IK4:IQ4"/>
+    <mergeCell ref="IR4:IX4"/>
+    <mergeCell ref="IY4:JE4"/>
+    <mergeCell ref="JF4:JL4"/>
+    <mergeCell ref="HB4:HH4"/>
+    <mergeCell ref="HI4:HO4"/>
+    <mergeCell ref="HP4:HV4"/>
+    <mergeCell ref="HW4:IC4"/>
+    <mergeCell ref="ID4:IJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G5:BJ28 BK5:JK6 BK8:JK28 G29:JK32">
+  <conditionalFormatting sqref="G5:BJ28 BK8:JK28 G29:JK32 BK5:JK6">
     <cfRule type="expression" dxfId="5" priority="36">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
@@ -11300,107 +11119,4 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="87.109375" style="27" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="28"/>
-    </row>
-    <row r="3" spans="1:2" s="33" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="34"/>
-    </row>
-    <row r="4" spans="1:2" s="30" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A4" s="31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="27" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="30" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A8" s="31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="27" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="30" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="27" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="30" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A14" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
-</worksheet>
 </file>